--- a/FaradayData.xlsx
+++ b/FaradayData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09d1f3cf5ee91424/HaydSwanMeta/JupyterCode/Physics 422/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="13_ncr:1_{35D472D5-3081-4040-8BB2-D05E0E66F0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABA9E511-8F93-470F-9A81-C5643DDBCAE3}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="13_ncr:1_{35D472D5-3081-4040-8BB2-D05E0E66F0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4283A2F2-02DC-428B-9BE3-B5D7777FDA84}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{6EAC14A5-1142-496B-AB7A-69A1B1452233}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="56">
   <si>
     <t>B long (cm)</t>
   </si>
@@ -186,6 +186,30 @@
   </si>
   <si>
     <t>nm</t>
+  </si>
+  <si>
+    <t>err=1/16</t>
+  </si>
+  <si>
+    <t>CHIRAL DATA</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>55gram</t>
+  </si>
+  <si>
+    <t>2.5err</t>
+  </si>
+  <si>
+    <t>mL</t>
   </si>
 </sst>
 </file>
@@ -7244,20 +7268,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94FD0F2-3F9D-427A-8005-85FE2D896475}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:K56"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="C1" t="s">
         <v>45</v>
@@ -7272,7 +7299,10 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>7.5</v>
+        <v>5.75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
       </c>
       <c r="G2">
         <v>450</v>
@@ -7284,20 +7314,38 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B3">
-        <v>18.600000000000001</v>
+        <v>6.9375</v>
       </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>82.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
       </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -7324,13 +7372,43 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="1" t="e">
+      <c r="B7">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>63.5</v>
+      </c>
+      <c r="D7">
+        <v>63.5</v>
+      </c>
+      <c r="E7">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>64</v>
+      </c>
+      <c r="G7">
+        <v>64</v>
+      </c>
+      <c r="H7">
+        <v>63</v>
+      </c>
+      <c r="I7">
+        <v>63</v>
+      </c>
+      <c r="J7">
+        <v>64</v>
+      </c>
+      <c r="K7">
+        <v>62</v>
+      </c>
+      <c r="L7" s="1">
         <f>AVERAGE(B7:K7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" t="e">
+        <v>63.4</v>
+      </c>
+      <c r="N7">
         <f>STDEV(B7:K7)/SQRT(10)</f>
-        <v>#DIV/0!</v>
+        <v>0.20816659994661327</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -7338,11 +7416,11 @@
         <v>10</v>
       </c>
       <c r="L8" s="1" t="e">
-        <f t="shared" ref="L8:L53" si="0">AVERAGE(B8:K8)</f>
+        <f>AVERAGE(B8:K8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N8" t="e">
-        <f t="shared" ref="N8:N57" si="1">STDEV(B8:K8)/SQRT(10)</f>
+        <f>STDEV(B8:K8)/SQRT(10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7351,11 +7429,11 @@
         <v>11</v>
       </c>
       <c r="L9" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B9:K9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N9" t="e">
-        <f t="shared" si="1"/>
+        <f>STDEV(B9:K9)/SQRT(10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7376,12 +7454,12 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L10:L53" si="0">AVERAGE(B10:K10)</f>
         <v>0.5</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N10:N57" si="1">STDEV(B10:K10)/SQRT(10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7389,13 +7467,43 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>64.5</v>
+      </c>
+      <c r="C11">
+        <v>66</v>
+      </c>
+      <c r="D11">
+        <v>65.5</v>
+      </c>
+      <c r="E11">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <v>63.5</v>
+      </c>
+      <c r="H11">
+        <v>64.5</v>
+      </c>
+      <c r="I11">
+        <v>63.5</v>
+      </c>
+      <c r="J11">
+        <v>65.5</v>
+      </c>
+      <c r="K11">
+        <v>63</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>64.5</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0.31622776601683794</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -7454,16 +7562,43 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <v>66</v>
+      </c>
+      <c r="D15">
+        <v>65.5</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <v>64</v>
+      </c>
+      <c r="G15">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>65.5</v>
+      </c>
+      <c r="I15">
+        <v>66.5</v>
+      </c>
+      <c r="J15">
+        <v>65</v>
+      </c>
+      <c r="K15">
+        <v>65</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>65.45</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>0.22912878474779197</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -7474,9 +7609,6 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M16" t="s">
-        <v>16</v>
-      </c>
       <c r="N16" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -7489,9 +7621,6 @@
       <c r="L17" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="M17" t="s">
-        <v>17</v>
       </c>
       <c r="N17" t="e">
         <f t="shared" si="1"/>
@@ -7528,16 +7657,44 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>65.5</v>
+      </c>
+      <c r="C19">
+        <v>65</v>
+      </c>
+      <c r="D19">
+        <v>67</v>
+      </c>
+      <c r="E19">
+        <v>66</v>
+      </c>
+      <c r="F19">
+        <v>67</v>
+      </c>
+      <c r="G19">
+        <v>67</v>
+      </c>
+      <c r="H19">
+        <v>65</v>
+      </c>
+      <c r="I19">
+        <v>66.5</v>
+      </c>
+      <c r="J19">
+        <v>67</v>
+      </c>
+      <c r="K19">
+        <v>65.5</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>66.150000000000006</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>0.26925824035672519</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -7547,9 +7704,6 @@
       <c r="L20" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="M20" t="s">
-        <v>18</v>
       </c>
       <c r="N20" t="e">
         <f t="shared" si="1"/>
@@ -7599,16 +7753,43 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B23">
+        <v>66.5</v>
+      </c>
+      <c r="C23">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <v>68</v>
+      </c>
+      <c r="E23">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <v>67.5</v>
+      </c>
+      <c r="G23">
+        <v>66.5</v>
+      </c>
+      <c r="H23">
+        <v>68</v>
+      </c>
+      <c r="I23">
+        <v>68.5</v>
+      </c>
+      <c r="J23">
+        <v>67.5</v>
+      </c>
+      <c r="K23">
+        <v>66</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="0"/>
+        <v>67.150000000000006</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>0.27938424357067015</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -7618,9 +7799,6 @@
       <c r="L24" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="M24" t="s">
-        <v>19</v>
       </c>
       <c r="N24" t="e">
         <f t="shared" si="1"/>
@@ -7670,16 +7848,43 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B27">
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <v>69</v>
+      </c>
+      <c r="D27">
+        <v>68</v>
+      </c>
+      <c r="E27">
+        <v>67.5</v>
+      </c>
+      <c r="F27">
+        <v>67.5</v>
+      </c>
+      <c r="G27">
+        <v>67.5</v>
+      </c>
+      <c r="H27">
+        <v>69.5</v>
+      </c>
+      <c r="I27">
+        <v>68</v>
+      </c>
+      <c r="J27">
+        <v>67</v>
+      </c>
+      <c r="K27">
+        <v>69</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="0"/>
+        <v>68.099999999999994</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0.25603819159562025</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -7689,9 +7894,6 @@
       <c r="L28" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="M28" t="s">
-        <v>21</v>
       </c>
       <c r="N28" t="e">
         <f t="shared" si="1"/>
@@ -7741,16 +7943,43 @@
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B31">
+        <v>68.5</v>
+      </c>
+      <c r="C31">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>69.5</v>
+      </c>
+      <c r="E31">
+        <v>69</v>
+      </c>
+      <c r="F31">
+        <v>70.5</v>
+      </c>
+      <c r="G31">
+        <v>70</v>
+      </c>
+      <c r="H31">
+        <v>68.5</v>
+      </c>
+      <c r="I31">
+        <v>69</v>
+      </c>
+      <c r="J31">
+        <v>69</v>
+      </c>
+      <c r="K31">
+        <v>69</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="0"/>
+        <v>69.3</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0.21343747458109494</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -7760,9 +7989,6 @@
       <c r="L32" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="M32" t="s">
-        <v>22</v>
       </c>
       <c r="N32" t="e">
         <f t="shared" si="1"/>
@@ -7812,16 +8038,43 @@
       <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="1" t="e">
+      <c r="B35">
+        <v>69</v>
+      </c>
+      <c r="C35">
+        <v>69.5</v>
+      </c>
+      <c r="D35">
+        <v>68.5</v>
+      </c>
+      <c r="E35">
+        <v>69</v>
+      </c>
+      <c r="F35">
+        <v>70.5</v>
+      </c>
+      <c r="G35">
+        <v>68</v>
+      </c>
+      <c r="H35">
+        <v>72.5</v>
+      </c>
+      <c r="I35">
+        <v>69</v>
+      </c>
+      <c r="J35">
+        <v>69.5</v>
+      </c>
+      <c r="K35">
+        <v>70</v>
+      </c>
+      <c r="L35" s="1">
         <f>AVERAGE(B35:K35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" t="s">
-        <v>22</v>
-      </c>
-      <c r="N35" t="e">
+        <v>69.55</v>
+      </c>
+      <c r="N35">
         <f>STDEV(B35:K35)/SQRT(10)</f>
-        <v>#DIV/0!</v>
+        <v>0.39756201472921876</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -7831,9 +8084,6 @@
       <c r="L36" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="M36" t="s">
-        <v>23</v>
       </c>
       <c r="N36" t="e">
         <f t="shared" si="1"/>
@@ -7883,16 +8133,43 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="1" t="e">
+      <c r="B39">
+        <v>71</v>
+      </c>
+      <c r="C39">
+        <v>70.5</v>
+      </c>
+      <c r="D39">
+        <v>71</v>
+      </c>
+      <c r="E39">
+        <v>71.5</v>
+      </c>
+      <c r="F39">
+        <v>71</v>
+      </c>
+      <c r="G39">
+        <v>70</v>
+      </c>
+      <c r="H39">
+        <v>70.5</v>
+      </c>
+      <c r="I39">
+        <v>70.5</v>
+      </c>
+      <c r="J39">
+        <v>72</v>
+      </c>
+      <c r="K39">
+        <v>69.5</v>
+      </c>
+      <c r="L39" s="1">
         <f>AVERAGE(B39:K39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" t="e">
+        <v>70.75</v>
+      </c>
+      <c r="N39">
         <f>STDEV(B39:K39)/SQRT(10)</f>
-        <v>#DIV/0!</v>
+        <v>0.2266911751455907</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -7902,9 +8179,6 @@
       <c r="L40" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="M40" t="s">
-        <v>24</v>
       </c>
       <c r="N40" t="e">
         <f t="shared" si="1"/>
@@ -7954,16 +8228,43 @@
       <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B43">
+        <v>71.5</v>
+      </c>
+      <c r="C43">
+        <v>71</v>
+      </c>
+      <c r="D43">
+        <v>71</v>
+      </c>
+      <c r="E43">
+        <v>71.5</v>
+      </c>
+      <c r="F43">
+        <v>73</v>
+      </c>
+      <c r="G43">
+        <v>71</v>
+      </c>
+      <c r="H43">
+        <v>70.5</v>
+      </c>
+      <c r="I43">
+        <v>71.5</v>
+      </c>
+      <c r="J43">
+        <v>71</v>
+      </c>
+      <c r="K43">
+        <v>72</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="0"/>
+        <v>71.400000000000006</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="1"/>
+        <v>0.22110831935702666</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -7973,9 +8274,6 @@
       <c r="L44" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="M44" t="s">
-        <v>25</v>
       </c>
       <c r="N44" t="e">
         <f t="shared" si="1"/>
@@ -8025,16 +8323,43 @@
       <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="L47" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" t="s">
-        <v>25</v>
-      </c>
-      <c r="N47" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B47">
+        <v>70.5</v>
+      </c>
+      <c r="C47">
+        <v>70</v>
+      </c>
+      <c r="D47">
+        <v>71.5</v>
+      </c>
+      <c r="E47">
+        <v>72</v>
+      </c>
+      <c r="F47">
+        <v>71.5</v>
+      </c>
+      <c r="G47">
+        <v>71.5</v>
+      </c>
+      <c r="H47">
+        <v>71</v>
+      </c>
+      <c r="I47">
+        <v>70.5</v>
+      </c>
+      <c r="J47">
+        <v>71</v>
+      </c>
+      <c r="K47">
+        <v>71.5</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="0"/>
+        <v>71.099999999999994</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="1"/>
+        <v>0.19436506316151</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -8044,9 +8369,6 @@
       <c r="L48" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="M48" t="s">
-        <v>26</v>
       </c>
       <c r="N48" t="e">
         <f t="shared" si="1"/>
@@ -8096,16 +8418,43 @@
       <c r="A51" t="s">
         <v>9</v>
       </c>
-      <c r="L51" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M51" t="s">
-        <v>27</v>
-      </c>
-      <c r="N51" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B51">
+        <v>71</v>
+      </c>
+      <c r="C51">
+        <v>70</v>
+      </c>
+      <c r="D51">
+        <v>70</v>
+      </c>
+      <c r="E51">
+        <v>71</v>
+      </c>
+      <c r="F51">
+        <v>71.5</v>
+      </c>
+      <c r="G51">
+        <v>71</v>
+      </c>
+      <c r="H51">
+        <v>71</v>
+      </c>
+      <c r="I51">
+        <v>71</v>
+      </c>
+      <c r="J51">
+        <v>70.5</v>
+      </c>
+      <c r="K51">
+        <v>70</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="0"/>
+        <v>70.7</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>0.16996731711975949</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -8116,9 +8465,7 @@
         <f>AVERAGE(B52:K52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -8167,16 +8514,43 @@
       <c r="A55" t="s">
         <v>9</v>
       </c>
-      <c r="L55" s="1" t="e">
+      <c r="B55">
+        <v>70</v>
+      </c>
+      <c r="C55">
+        <v>69.5</v>
+      </c>
+      <c r="D55">
+        <v>70</v>
+      </c>
+      <c r="E55">
+        <v>69</v>
+      </c>
+      <c r="F55">
+        <v>70</v>
+      </c>
+      <c r="G55">
+        <v>69.5</v>
+      </c>
+      <c r="H55">
+        <v>69</v>
+      </c>
+      <c r="I55">
+        <v>69</v>
+      </c>
+      <c r="J55">
+        <v>69.5</v>
+      </c>
+      <c r="K55">
+        <v>70</v>
+      </c>
+      <c r="L55" s="1">
         <f t="shared" ref="L55" si="2">AVERAGE(B55:K55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M55" t="s">
-        <v>27</v>
-      </c>
-      <c r="N55" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>69.55</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="1"/>
+        <v>0.13844373104863458</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -8187,9 +8561,7 @@
         <f>AVERAGE(B56:K56)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M56" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="e">
         <f>STDEV(B56:K56)/SQRT(10)</f>
         <v>#DIV/0!</v>
@@ -8205,6 +8577,95 @@
       </c>
       <c r="N57" t="e">
         <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>48</v>
+      </c>
+      <c r="C59">
+        <v>47</v>
+      </c>
+      <c r="D59">
+        <v>48</v>
+      </c>
+      <c r="E59">
+        <v>47</v>
+      </c>
+      <c r="F59">
+        <v>47.5</v>
+      </c>
+      <c r="G59">
+        <v>47.5</v>
+      </c>
+      <c r="H59">
+        <v>48</v>
+      </c>
+      <c r="I59">
+        <v>47</v>
+      </c>
+      <c r="J59">
+        <v>47.5</v>
+      </c>
+      <c r="K59">
+        <v>48</v>
+      </c>
+      <c r="L59" s="1">
+        <f>AVERAGE(B59:K59)</f>
+        <v>47.55</v>
+      </c>
+      <c r="N59">
+        <f>STDEV(B59:K59)/SQRT(10)</f>
+        <v>0.13844373104863458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="1" t="e">
+        <f t="shared" ref="L60:L61" si="4">AVERAGE(B60:K60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N60" t="e">
+        <f t="shared" ref="N60:N61" si="5">STDEV(B60:K60)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N61" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/FaradayData.xlsx
+++ b/FaradayData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09d1f3cf5ee91424/HaydSwanMeta/JupyterCode/Physics 422/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="13_ncr:1_{35D472D5-3081-4040-8BB2-D05E0E66F0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4283A2F2-02DC-428B-9BE3-B5D7777FDA84}"/>
+  <xr:revisionPtr revIDLastSave="652" documentId="13_ncr:1_{35D472D5-3081-4040-8BB2-D05E0E66F0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55152D77-5D87-4F93-8E63-24767BC759E7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{6EAC14A5-1142-496B-AB7A-69A1B1452233}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{6EAC14A5-1142-496B-AB7A-69A1B1452233}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpParams" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Rotation1" sheetId="4" r:id="rId5"/>
     <sheet name="Rotation2" sheetId="5" r:id="rId6"/>
     <sheet name="Rotation3" sheetId="7" r:id="rId7"/>
+    <sheet name="Rotation4" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="58">
   <si>
     <t>B long (cm)</t>
   </si>
@@ -210,6 +211,12 @@
   </si>
   <si>
     <t>mL</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>initial pol</t>
   </si>
 </sst>
 </file>
@@ -7270,8 +7277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94FD0F2-3F9D-427A-8005-85FE2D896475}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8672,4 +8679,1421 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44605ADF-DAFE-4903-846E-D4893C533D31}">
+  <dimension ref="A1:N61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>5.875</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>535</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2">
+        <v>218.5</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>6.9375</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>82.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>102</v>
+      </c>
+      <c r="C7">
+        <v>104</v>
+      </c>
+      <c r="D7">
+        <v>102.5</v>
+      </c>
+      <c r="E7">
+        <v>103</v>
+      </c>
+      <c r="F7">
+        <v>103.5</v>
+      </c>
+      <c r="G7">
+        <v>102.5</v>
+      </c>
+      <c r="H7">
+        <v>103.5</v>
+      </c>
+      <c r="I7">
+        <v>104</v>
+      </c>
+      <c r="J7">
+        <v>103</v>
+      </c>
+      <c r="K7">
+        <v>102.5</v>
+      </c>
+      <c r="L7" s="1">
+        <f>AVERAGE(B7:K7)</f>
+        <v>103.05</v>
+      </c>
+      <c r="N7">
+        <f>STDEV(B7:K7)/SQRT(10)</f>
+        <v>0.21666666666666665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1" t="e">
+        <f>AVERAGE(B8:K8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" t="e">
+        <f>STDEV(B8:K8)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="1" t="e">
+        <f>AVERAGE(B9:K9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" t="e">
+        <f>STDEV(B9:K9)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <f t="shared" ref="L10:L53" si="0">AVERAGE(B10:K10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" t="e">
+        <f t="shared" ref="N10:N57" si="1">STDEV(B10:K10)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>103</v>
+      </c>
+      <c r="C11">
+        <v>105</v>
+      </c>
+      <c r="D11">
+        <v>105</v>
+      </c>
+      <c r="E11">
+        <v>104.5</v>
+      </c>
+      <c r="F11">
+        <v>104</v>
+      </c>
+      <c r="G11">
+        <v>105</v>
+      </c>
+      <c r="H11">
+        <v>104</v>
+      </c>
+      <c r="I11">
+        <v>105</v>
+      </c>
+      <c r="J11">
+        <v>103.5</v>
+      </c>
+      <c r="K11">
+        <v>104</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>104.3</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0.22607766610417557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>104.5</v>
+      </c>
+      <c r="C15">
+        <v>105.5</v>
+      </c>
+      <c r="D15">
+        <v>106</v>
+      </c>
+      <c r="E15">
+        <v>104</v>
+      </c>
+      <c r="F15">
+        <v>104.5</v>
+      </c>
+      <c r="G15">
+        <v>104.5</v>
+      </c>
+      <c r="H15">
+        <v>106</v>
+      </c>
+      <c r="I15">
+        <v>104</v>
+      </c>
+      <c r="J15">
+        <v>104</v>
+      </c>
+      <c r="K15">
+        <v>104</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>104.7</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>0.26034165586355507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>104</v>
+      </c>
+      <c r="C19">
+        <v>105</v>
+      </c>
+      <c r="D19">
+        <v>104</v>
+      </c>
+      <c r="E19">
+        <v>104.5</v>
+      </c>
+      <c r="F19">
+        <v>104</v>
+      </c>
+      <c r="G19">
+        <v>105</v>
+      </c>
+      <c r="H19">
+        <v>104</v>
+      </c>
+      <c r="I19">
+        <v>104.5</v>
+      </c>
+      <c r="J19">
+        <v>104</v>
+      </c>
+      <c r="K19">
+        <v>105.5</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>104.45</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>0.1740051084818425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
+        <f>AVERAGE(B22:K22)</f>
+        <v>2</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>105</v>
+      </c>
+      <c r="C23">
+        <v>106</v>
+      </c>
+      <c r="D23">
+        <v>105.5</v>
+      </c>
+      <c r="E23">
+        <v>105</v>
+      </c>
+      <c r="F23">
+        <v>105.5</v>
+      </c>
+      <c r="G23">
+        <v>105</v>
+      </c>
+      <c r="H23">
+        <v>107</v>
+      </c>
+      <c r="I23">
+        <v>105.5</v>
+      </c>
+      <c r="J23">
+        <v>105.5</v>
+      </c>
+      <c r="K23">
+        <v>107</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="0"/>
+        <v>105.7</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>0.23804761428476165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>106</v>
+      </c>
+      <c r="C27">
+        <v>106</v>
+      </c>
+      <c r="D27">
+        <v>106</v>
+      </c>
+      <c r="E27">
+        <v>105.5</v>
+      </c>
+      <c r="F27">
+        <v>105</v>
+      </c>
+      <c r="G27">
+        <v>106</v>
+      </c>
+      <c r="H27">
+        <v>105.5</v>
+      </c>
+      <c r="I27">
+        <v>106</v>
+      </c>
+      <c r="J27">
+        <v>106.5</v>
+      </c>
+      <c r="K27">
+        <v>106</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="0"/>
+        <v>105.85</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0.13017082793177756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>106</v>
+      </c>
+      <c r="C31">
+        <v>107</v>
+      </c>
+      <c r="D31">
+        <v>106.5</v>
+      </c>
+      <c r="E31">
+        <v>107</v>
+      </c>
+      <c r="F31">
+        <v>107</v>
+      </c>
+      <c r="G31">
+        <v>106.5</v>
+      </c>
+      <c r="H31">
+        <v>106</v>
+      </c>
+      <c r="I31">
+        <v>107</v>
+      </c>
+      <c r="J31">
+        <v>106</v>
+      </c>
+      <c r="K31">
+        <v>107</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="0"/>
+        <v>106.6</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0.14529663145135577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>106.5</v>
+      </c>
+      <c r="C35">
+        <v>108</v>
+      </c>
+      <c r="D35">
+        <v>107</v>
+      </c>
+      <c r="E35">
+        <v>108</v>
+      </c>
+      <c r="F35">
+        <v>106.5</v>
+      </c>
+      <c r="G35">
+        <v>106.5</v>
+      </c>
+      <c r="H35">
+        <v>106</v>
+      </c>
+      <c r="I35">
+        <v>107</v>
+      </c>
+      <c r="J35">
+        <v>106.5</v>
+      </c>
+      <c r="K35">
+        <v>106</v>
+      </c>
+      <c r="L35" s="1">
+        <f>AVERAGE(B35:K35)</f>
+        <v>106.8</v>
+      </c>
+      <c r="N35">
+        <f>STDEV(B35:K35)/SQRT(10)</f>
+        <v>0.22607766610417557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>106.5</v>
+      </c>
+      <c r="C39">
+        <v>107</v>
+      </c>
+      <c r="D39">
+        <v>107.5</v>
+      </c>
+      <c r="E39">
+        <v>107</v>
+      </c>
+      <c r="F39">
+        <v>108</v>
+      </c>
+      <c r="G39">
+        <v>107</v>
+      </c>
+      <c r="H39">
+        <v>108</v>
+      </c>
+      <c r="I39">
+        <v>107.5</v>
+      </c>
+      <c r="J39">
+        <v>108</v>
+      </c>
+      <c r="K39">
+        <v>107</v>
+      </c>
+      <c r="L39" s="1">
+        <f>AVERAGE(B39:K39)</f>
+        <v>107.35</v>
+      </c>
+      <c r="N39">
+        <f>STDEV(B39:K39)/SQRT(10)</f>
+        <v>0.16749792701868152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>106</v>
+      </c>
+      <c r="C43">
+        <v>106.5</v>
+      </c>
+      <c r="D43">
+        <v>106</v>
+      </c>
+      <c r="E43">
+        <v>106.5</v>
+      </c>
+      <c r="F43">
+        <v>105</v>
+      </c>
+      <c r="G43">
+        <v>106.5</v>
+      </c>
+      <c r="H43">
+        <v>108</v>
+      </c>
+      <c r="I43">
+        <v>106.5</v>
+      </c>
+      <c r="J43">
+        <v>107</v>
+      </c>
+      <c r="K43">
+        <v>105.5</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="0"/>
+        <v>106.35</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="1"/>
+        <v>0.25873624493766706</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N44" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>106.5</v>
+      </c>
+      <c r="C47">
+        <v>106</v>
+      </c>
+      <c r="D47">
+        <v>105.5</v>
+      </c>
+      <c r="E47">
+        <v>106</v>
+      </c>
+      <c r="F47">
+        <v>106</v>
+      </c>
+      <c r="G47">
+        <v>107</v>
+      </c>
+      <c r="H47">
+        <v>106</v>
+      </c>
+      <c r="I47">
+        <v>107</v>
+      </c>
+      <c r="J47">
+        <v>108</v>
+      </c>
+      <c r="K47">
+        <v>108</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="0"/>
+        <v>106.6</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="1"/>
+        <v>0.27688746209726917</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1">
+        <f>AVERAGE(B50:K50)</f>
+        <v>5.5</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>106</v>
+      </c>
+      <c r="C51">
+        <v>105.5</v>
+      </c>
+      <c r="D51">
+        <v>107</v>
+      </c>
+      <c r="E51">
+        <v>106</v>
+      </c>
+      <c r="F51">
+        <v>105.5</v>
+      </c>
+      <c r="G51">
+        <v>107</v>
+      </c>
+      <c r="H51">
+        <v>107</v>
+      </c>
+      <c r="I51">
+        <v>106</v>
+      </c>
+      <c r="J51">
+        <v>105.5</v>
+      </c>
+      <c r="K51">
+        <v>105</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="0"/>
+        <v>106.05</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>0.22912878474779197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="1" t="e">
+        <f>AVERAGE(B52:K52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1">
+        <f>AVERAGE(B54:K54)</f>
+        <v>6</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>107</v>
+      </c>
+      <c r="C55">
+        <v>106</v>
+      </c>
+      <c r="D55">
+        <v>106</v>
+      </c>
+      <c r="E55">
+        <v>106</v>
+      </c>
+      <c r="F55">
+        <v>105.5</v>
+      </c>
+      <c r="G55">
+        <v>107.5</v>
+      </c>
+      <c r="H55">
+        <v>106</v>
+      </c>
+      <c r="I55">
+        <v>105.5</v>
+      </c>
+      <c r="J55">
+        <v>107</v>
+      </c>
+      <c r="K55">
+        <v>106</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" ref="L55" si="2">AVERAGE(B55:K55)</f>
+        <v>106.25</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="1"/>
+        <v>0.2140872096444188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="1" t="e">
+        <f>AVERAGE(B56:K56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="e">
+        <f>STDEV(B56:K56)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="1" t="e">
+        <f t="shared" ref="L57" si="3">AVERAGE(B57:K57)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N57" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>11.5</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>11.5</v>
+      </c>
+      <c r="F59">
+        <v>11.5</v>
+      </c>
+      <c r="G59">
+        <v>12</v>
+      </c>
+      <c r="H59">
+        <v>12</v>
+      </c>
+      <c r="I59">
+        <v>11.5</v>
+      </c>
+      <c r="J59">
+        <v>14</v>
+      </c>
+      <c r="K59">
+        <v>12.5</v>
+      </c>
+      <c r="L59" s="1">
+        <f>AVERAGE(B59:K59)</f>
+        <v>12.05</v>
+      </c>
+      <c r="N59">
+        <f>STDEV(B59:K59)/SQRT(10)</f>
+        <v>0.24094720491334934</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="1" t="e">
+        <f t="shared" ref="L60:L61" si="4">AVERAGE(B60:K60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N60" t="e">
+        <f t="shared" ref="N60:N61" si="5">STDEV(B60:K60)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N61" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FaradayData.xlsx
+++ b/FaradayData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09d1f3cf5ee91424/HaydSwanMeta/JupyterCode/Physics 422/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="652" documentId="13_ncr:1_{35D472D5-3081-4040-8BB2-D05E0E66F0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55152D77-5D87-4F93-8E63-24767BC759E7}"/>
+  <xr:revisionPtr revIDLastSave="928" documentId="13_ncr:1_{35D472D5-3081-4040-8BB2-D05E0E66F0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1FDEF26-F0CC-48CE-BC96-0953C7DCD880}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{6EAC14A5-1142-496B-AB7A-69A1B1452233}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{6EAC14A5-1142-496B-AB7A-69A1B1452233}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpParams" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Rotation2" sheetId="5" r:id="rId6"/>
     <sheet name="Rotation3" sheetId="7" r:id="rId7"/>
     <sheet name="Rotation4" sheetId="8" r:id="rId8"/>
+    <sheet name="Rotation5" sheetId="9" r:id="rId9"/>
+    <sheet name="Rotation6" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="65">
   <si>
     <t>B long (cm)</t>
   </si>
@@ -217,6 +219,27 @@
   </si>
   <si>
     <t>initial pol</t>
+  </si>
+  <si>
+    <t>Bad data for retaking data 3 but blue light was very dim</t>
+  </si>
+  <si>
+    <t>FIBER DATA</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>0.14 uW</t>
+  </si>
+  <si>
+    <t>towards</t>
+  </si>
+  <si>
+    <t>away</t>
   </si>
 </sst>
 </file>
@@ -3053,6 +3076,1096 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8F5640-C57C-42CD-85FC-0F28C76F95E9}">
+  <dimension ref="A1:U57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1">
+        <v>5.96875</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>635</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>6.9375</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>35</v>
+      </c>
+      <c r="K7">
+        <v>28</v>
+      </c>
+      <c r="L7" s="1">
+        <f>AVERAGE(B7:K7)</f>
+        <v>30.7</v>
+      </c>
+      <c r="N7">
+        <f>STDEV(B7:K7)/SQRT(10)</f>
+        <v>1.308519095092703</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1" t="e">
+        <f>AVERAGE(B8:K8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" t="e">
+        <f>STDEV(B8:K8)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="1" t="e">
+        <f>AVERAGE(B9:K9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" t="e">
+        <f>STDEV(B9:K9)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <f t="shared" ref="L10:L53" si="0">AVERAGE(B10:K10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" t="e">
+        <f t="shared" ref="N10:N53" si="1">STDEV(B10:K10)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>29</v>
+      </c>
+      <c r="G11">
+        <v>29</v>
+      </c>
+      <c r="H11">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>29</v>
+      </c>
+      <c r="J11">
+        <v>28</v>
+      </c>
+      <c r="K11">
+        <v>37</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>32.1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>1.3370780746754372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14">
+        <v>0.15</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>28</v>
+      </c>
+      <c r="H15">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>2.1756225162774294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>27</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>27</v>
+      </c>
+      <c r="J19">
+        <v>19</v>
+      </c>
+      <c r="K19">
+        <v>27</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>23.2</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>1.2719189352225957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
+        <f>AVERAGE(B22:K22)</f>
+        <v>2</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="1" t="e">
+        <f>AVERAGE(B35:K35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" t="e">
+        <f>STDEV(B35:K35)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="1" t="e">
+        <f>AVERAGE(B39:K39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" t="e">
+        <f>STDEV(B39:K39)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N43" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N44" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5.5010000000000003</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1">
+        <f>AVERAGE(B50:K50)</f>
+        <v>5.5010000000000003</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N51" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="1" t="e">
+        <f>AVERAGE(B52:K52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54">
+        <v>0.3</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>33</v>
+      </c>
+      <c r="C55">
+        <v>31</v>
+      </c>
+      <c r="D55">
+        <v>33</v>
+      </c>
+      <c r="E55">
+        <v>35</v>
+      </c>
+      <c r="F55">
+        <v>37</v>
+      </c>
+      <c r="G55">
+        <v>37</v>
+      </c>
+      <c r="H55">
+        <v>31</v>
+      </c>
+      <c r="I55">
+        <v>39</v>
+      </c>
+      <c r="J55">
+        <v>36</v>
+      </c>
+      <c r="K55">
+        <v>30</v>
+      </c>
+      <c r="L55" s="1">
+        <f>AVERAGE(B55:K55)</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="N55">
+        <f>STDEV(B55:K55)/SQRT(10)</f>
+        <v>0.96378881965339736</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="1" t="e">
+        <f t="shared" ref="L56:L57" si="2">AVERAGE(B56:K56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N56" t="e">
+        <f t="shared" ref="N56:N57" si="3">STDEV(B56:K56)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N57" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E50A4B-29BC-4DF2-8BA1-E550C8F25E95}">
   <dimension ref="A1:F11"/>
@@ -3913,8 +5026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54E92B4-B77C-4005-977E-DFA1B63AC349}">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="88" zoomScaleNormal="210" workbookViewId="0">
-      <selection sqref="A1:N53"/>
+    <sheetView zoomScale="88" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5911,7 +7024,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:N57"/>
+      <selection activeCell="T50" sqref="T50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7277,8 +8390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94FD0F2-3F9D-427A-8005-85FE2D896475}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8685,9 +9798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44605ADF-DAFE-4903-846E-D4893C533D31}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10096,4 +11207,1319 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8689EEDC-2933-420F-A03A-A0206B7A4892}">
+  <dimension ref="A1:Q57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="S58" sqref="S58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1">
+        <v>5.96875</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>450</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>6.9375</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>82.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>67</v>
+      </c>
+      <c r="C7">
+        <v>68</v>
+      </c>
+      <c r="D7">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>70.5</v>
+      </c>
+      <c r="F7">
+        <v>71.5</v>
+      </c>
+      <c r="G7">
+        <v>70</v>
+      </c>
+      <c r="H7">
+        <v>72</v>
+      </c>
+      <c r="I7">
+        <v>77</v>
+      </c>
+      <c r="J7">
+        <v>70</v>
+      </c>
+      <c r="K7">
+        <v>70</v>
+      </c>
+      <c r="L7" s="1">
+        <f>AVERAGE(B7:K7)</f>
+        <v>70.5</v>
+      </c>
+      <c r="N7">
+        <f>STDEV(B7:K7)/SQRT(10)</f>
+        <v>0.86281194036965225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1" t="e">
+        <f>AVERAGE(B8:K8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" t="e">
+        <f>STDEV(B8:K8)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="1" t="e">
+        <f>AVERAGE(B9:K9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" t="e">
+        <f>STDEV(B9:K9)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <f t="shared" ref="L10:L53" si="0">AVERAGE(B10:K10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" t="e">
+        <f t="shared" ref="N10:N53" si="1">STDEV(B10:K10)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>74</v>
+      </c>
+      <c r="C11">
+        <v>71.5</v>
+      </c>
+      <c r="D11">
+        <v>71</v>
+      </c>
+      <c r="E11">
+        <v>67</v>
+      </c>
+      <c r="F11">
+        <v>71.5</v>
+      </c>
+      <c r="G11">
+        <v>71</v>
+      </c>
+      <c r="H11">
+        <v>71.5</v>
+      </c>
+      <c r="I11">
+        <v>68.5</v>
+      </c>
+      <c r="J11">
+        <v>71.5</v>
+      </c>
+      <c r="K11">
+        <v>73.5</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>71.099999999999994</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0.65319726474218076</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>69</v>
+      </c>
+      <c r="C15">
+        <v>73.5</v>
+      </c>
+      <c r="D15">
+        <v>74</v>
+      </c>
+      <c r="E15">
+        <v>79</v>
+      </c>
+      <c r="F15">
+        <v>68.5</v>
+      </c>
+      <c r="G15">
+        <v>71</v>
+      </c>
+      <c r="H15">
+        <v>79</v>
+      </c>
+      <c r="I15">
+        <v>78</v>
+      </c>
+      <c r="J15">
+        <v>74.5</v>
+      </c>
+      <c r="K15">
+        <v>68.5</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>73.5</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>1.3270686158262921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>72</v>
+      </c>
+      <c r="C19">
+        <v>73</v>
+      </c>
+      <c r="D19">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <v>80</v>
+      </c>
+      <c r="G19">
+        <v>71</v>
+      </c>
+      <c r="H19">
+        <v>76</v>
+      </c>
+      <c r="I19">
+        <v>70</v>
+      </c>
+      <c r="J19">
+        <v>74</v>
+      </c>
+      <c r="K19">
+        <v>71</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>72.7</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>1.0225241100118645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
+        <f>AVERAGE(B22:K22)</f>
+        <v>2</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>73</v>
+      </c>
+      <c r="C23">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>74</v>
+      </c>
+      <c r="E23">
+        <v>72</v>
+      </c>
+      <c r="F23">
+        <v>79</v>
+      </c>
+      <c r="G23">
+        <v>71</v>
+      </c>
+      <c r="H23">
+        <v>80</v>
+      </c>
+      <c r="I23">
+        <v>78</v>
+      </c>
+      <c r="J23">
+        <v>74</v>
+      </c>
+      <c r="K23">
+        <v>74</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="0"/>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>1.0349449797506682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>70</v>
+      </c>
+      <c r="C27">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>84</v>
+      </c>
+      <c r="E27">
+        <v>75</v>
+      </c>
+      <c r="F27">
+        <v>77</v>
+      </c>
+      <c r="G27">
+        <v>74</v>
+      </c>
+      <c r="H27">
+        <v>73</v>
+      </c>
+      <c r="I27">
+        <v>73</v>
+      </c>
+      <c r="J27">
+        <v>74</v>
+      </c>
+      <c r="K27">
+        <v>78</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="0"/>
+        <v>74.8</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>1.3063945294843615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>76</v>
+      </c>
+      <c r="C31">
+        <v>81</v>
+      </c>
+      <c r="D31">
+        <v>77</v>
+      </c>
+      <c r="E31">
+        <v>76</v>
+      </c>
+      <c r="F31">
+        <v>78</v>
+      </c>
+      <c r="G31">
+        <v>70</v>
+      </c>
+      <c r="H31">
+        <v>78</v>
+      </c>
+      <c r="I31">
+        <v>75</v>
+      </c>
+      <c r="J31">
+        <v>75</v>
+      </c>
+      <c r="K31">
+        <v>78</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="0"/>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0.90921211313239048</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>70</v>
+      </c>
+      <c r="C35">
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <v>73</v>
+      </c>
+      <c r="E35">
+        <v>72</v>
+      </c>
+      <c r="F35">
+        <v>75</v>
+      </c>
+      <c r="G35">
+        <v>76</v>
+      </c>
+      <c r="H35">
+        <v>73</v>
+      </c>
+      <c r="I35">
+        <v>72</v>
+      </c>
+      <c r="J35">
+        <v>78</v>
+      </c>
+      <c r="K35">
+        <v>75</v>
+      </c>
+      <c r="L35" s="1">
+        <f>AVERAGE(B35:K35)</f>
+        <v>73.900000000000006</v>
+      </c>
+      <c r="N35">
+        <f>STDEV(B35:K35)/SQRT(10)</f>
+        <v>0.73711147958319923</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>79</v>
+      </c>
+      <c r="C39">
+        <v>78</v>
+      </c>
+      <c r="D39">
+        <v>78.5</v>
+      </c>
+      <c r="E39">
+        <v>83</v>
+      </c>
+      <c r="F39">
+        <v>74</v>
+      </c>
+      <c r="G39">
+        <v>78</v>
+      </c>
+      <c r="H39">
+        <v>77</v>
+      </c>
+      <c r="I39">
+        <v>72.5</v>
+      </c>
+      <c r="J39">
+        <v>82</v>
+      </c>
+      <c r="K39">
+        <v>79</v>
+      </c>
+      <c r="L39" s="1">
+        <f>AVERAGE(B39:K39)</f>
+        <v>78.099999999999994</v>
+      </c>
+      <c r="N39">
+        <f>STDEV(B39:K39)/SQRT(10)</f>
+        <v>1.0022197585581938</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>78</v>
+      </c>
+      <c r="C43">
+        <v>84.5</v>
+      </c>
+      <c r="D43">
+        <v>79</v>
+      </c>
+      <c r="E43">
+        <v>81</v>
+      </c>
+      <c r="F43">
+        <v>78.5</v>
+      </c>
+      <c r="G43">
+        <v>73</v>
+      </c>
+      <c r="H43">
+        <v>76</v>
+      </c>
+      <c r="I43">
+        <v>79</v>
+      </c>
+      <c r="J43">
+        <v>84.5</v>
+      </c>
+      <c r="K43">
+        <v>81</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="0"/>
+        <v>79.45</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="1"/>
+        <v>1.1191514642799696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N44" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>80.5</v>
+      </c>
+      <c r="C47">
+        <v>85</v>
+      </c>
+      <c r="D47">
+        <v>79</v>
+      </c>
+      <c r="E47">
+        <v>82</v>
+      </c>
+      <c r="F47">
+        <v>85</v>
+      </c>
+      <c r="G47">
+        <v>79.5</v>
+      </c>
+      <c r="H47">
+        <v>84.5</v>
+      </c>
+      <c r="I47">
+        <v>84</v>
+      </c>
+      <c r="J47">
+        <v>78</v>
+      </c>
+      <c r="K47">
+        <v>78.5</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="0"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="1"/>
+        <v>0.89690826980491389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5.5010000000000003</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1">
+        <f>AVERAGE(B50:K50)</f>
+        <v>5.5010000000000003</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>78.5</v>
+      </c>
+      <c r="C51">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>75.5</v>
+      </c>
+      <c r="E51">
+        <v>77</v>
+      </c>
+      <c r="F51">
+        <v>82</v>
+      </c>
+      <c r="G51">
+        <v>81.5</v>
+      </c>
+      <c r="H51">
+        <v>78</v>
+      </c>
+      <c r="I51">
+        <v>82</v>
+      </c>
+      <c r="J51">
+        <v>85</v>
+      </c>
+      <c r="K51">
+        <v>81</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="0"/>
+        <v>79.55</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>1.0259142264341594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="1" t="e">
+        <f>AVERAGE(B52:K52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <v>52</v>
+      </c>
+      <c r="E55">
+        <v>52.5</v>
+      </c>
+      <c r="F55">
+        <v>52.5</v>
+      </c>
+      <c r="G55">
+        <v>52.5</v>
+      </c>
+      <c r="H55">
+        <v>53</v>
+      </c>
+      <c r="I55">
+        <v>52.5</v>
+      </c>
+      <c r="J55">
+        <v>51</v>
+      </c>
+      <c r="K55">
+        <v>53</v>
+      </c>
+      <c r="L55" s="1">
+        <f>AVERAGE(B55:K55)</f>
+        <v>52.4</v>
+      </c>
+      <c r="N55">
+        <f>STDEV(B55:K55)/SQRT(10)</f>
+        <v>0.19436506316151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="1" t="e">
+        <f t="shared" ref="L56:L57" si="2">AVERAGE(B56:K56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N56" t="e">
+        <f t="shared" ref="N56:N57" si="3">STDEV(B56:K56)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N57" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FaradayData.xlsx
+++ b/FaradayData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09d1f3cf5ee91424/HaydSwanMeta/JupyterCode/Physics 422/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="928" documentId="13_ncr:1_{35D472D5-3081-4040-8BB2-D05E0E66F0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1FDEF26-F0CC-48CE-BC96-0953C7DCD880}"/>
+  <xr:revisionPtr revIDLastSave="1131" documentId="13_ncr:1_{35D472D5-3081-4040-8BB2-D05E0E66F0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12D5E8B9-B631-457B-AEFD-0BEFCB0CA7A2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{6EAC14A5-1142-496B-AB7A-69A1B1452233}"/>
   </bookViews>
@@ -3078,10 +3078,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8F5640-C57C-42CD-85FC-0F28C76F95E9}">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3089,7 +3089,7 @@
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>6</v>
       </c>
       <c r="G2">
-        <v>635</v>
+        <v>635.4</v>
       </c>
       <c r="H2" t="s">
         <v>47</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>59</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3174,54 +3174,84 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="L7" s="1">
         <f>AVERAGE(B7:K7)</f>
-        <v>30.7</v>
+        <v>8.4</v>
       </c>
       <c r="N7">
         <f>STDEV(B7:K7)/SQRT(10)</f>
-        <v>1.308519095092703</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.013245610238044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3234,7 +3264,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3247,7 +3277,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3275,51 +3305,81 @@
       <c r="P10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K11">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>32.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>1.3370780746754372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.5059142664102023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3332,7 +3392,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3345,7 +3405,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -3370,57 +3430,84 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O14">
-        <v>0.15</v>
-      </c>
       <c r="P14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H15">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I15">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K15">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>11.5</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>2.1756225162774294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3433,7 +3520,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -3446,7 +3533,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -3472,54 +3559,84 @@
         <v>#DIV/0!</v>
       </c>
       <c r="P18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F19">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I19">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J19">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="K19">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="0"/>
-        <v>23.2</v>
+        <v>12.5</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>1.2719189352225957</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.3763881881375051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -3532,7 +3649,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -3545,7 +3662,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -3570,21 +3687,84 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="J23">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>16</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="0"/>
+        <v>13.6</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>0.61824123303304768</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -3597,7 +3777,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -3610,7 +3790,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -3635,21 +3815,84 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>6</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>19</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>19</v>
+      </c>
+      <c r="I27">
+        <v>11</v>
+      </c>
+      <c r="J27">
+        <v>19</v>
+      </c>
+      <c r="K27">
+        <v>11</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="0"/>
+        <v>14.9</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>1.303414319734477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -3662,7 +3905,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -3675,7 +3918,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3700,21 +3943,84 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>7</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
+      </c>
+      <c r="F31">
+        <v>16</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>17</v>
+      </c>
+      <c r="I31">
+        <v>15</v>
+      </c>
+      <c r="J31">
+        <v>17</v>
+      </c>
+      <c r="K31">
+        <v>14</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="0"/>
+        <v>15.8</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>1.0934146311237811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -3727,7 +4033,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -3740,7 +4046,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -3765,21 +4071,84 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>8</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="1" t="e">
+      <c r="B35">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <v>21</v>
+      </c>
+      <c r="F35">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <v>21</v>
+      </c>
+      <c r="H35">
+        <v>13</v>
+      </c>
+      <c r="I35">
+        <v>21</v>
+      </c>
+      <c r="J35">
+        <v>13</v>
+      </c>
+      <c r="K35">
+        <v>21</v>
+      </c>
+      <c r="L35" s="1">
         <f>AVERAGE(B35:K35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" t="e">
+        <v>17.2</v>
+      </c>
+      <c r="N35">
         <f>STDEV(B35:K35)/SQRT(10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.2719189352225937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -3792,20 +4161,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L37" s="1"/>
       <c r="N37" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -3830,21 +4196,84 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>9</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="1" t="e">
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>23</v>
+      </c>
+      <c r="F39">
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <v>23</v>
+      </c>
+      <c r="H39">
+        <v>13</v>
+      </c>
+      <c r="I39">
+        <v>24</v>
+      </c>
+      <c r="J39">
+        <v>14</v>
+      </c>
+      <c r="K39">
+        <v>23</v>
+      </c>
+      <c r="L39" s="1">
         <f>AVERAGE(B39:K39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N39" t="e">
+        <v>18.3</v>
+      </c>
+      <c r="N39">
         <f>STDEV(B39:K39)/SQRT(10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.640121946685672</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -3857,7 +4286,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -3870,7 +4299,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -3895,21 +4324,84 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>10</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N43" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>22</v>
+      </c>
+      <c r="E43">
+        <v>17</v>
+      </c>
+      <c r="F43">
+        <v>22</v>
+      </c>
+      <c r="G43">
+        <v>18</v>
+      </c>
+      <c r="H43">
+        <v>21</v>
+      </c>
+      <c r="I43">
+        <v>18</v>
+      </c>
+      <c r="J43">
+        <v>22</v>
+      </c>
+      <c r="K43">
+        <v>18</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="0"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="1"/>
+        <v>0.68637534273246736</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -3922,7 +4414,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -3935,7 +4427,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -3960,21 +4452,84 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>11</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="L47" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N47" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <v>17</v>
+      </c>
+      <c r="D47">
+        <v>25</v>
+      </c>
+      <c r="E47">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>25</v>
+      </c>
+      <c r="G47">
+        <v>17</v>
+      </c>
+      <c r="H47">
+        <v>25</v>
+      </c>
+      <c r="I47">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <v>25</v>
+      </c>
+      <c r="K47">
+        <v>17</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -3987,7 +4542,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -4000,7 +4555,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -4025,21 +4580,84 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P50">
+        <v>12</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
-      <c r="L51" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N51" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>26</v>
+      </c>
+      <c r="D51">
+        <v>17</v>
+      </c>
+      <c r="E51">
+        <v>26</v>
+      </c>
+      <c r="F51">
+        <v>17</v>
+      </c>
+      <c r="G51">
+        <v>27</v>
+      </c>
+      <c r="H51">
+        <v>17</v>
+      </c>
+      <c r="I51">
+        <v>26</v>
+      </c>
+      <c r="J51">
+        <v>16</v>
+      </c>
+      <c r="K51">
+        <v>27</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="0"/>
+        <v>21.6</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>1.6069294390925253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -4053,7 +4671,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -4066,7 +4684,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -4085,57 +4703,84 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54">
-        <v>0.3</v>
-      </c>
       <c r="P54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
       <c r="B55">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E55">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F55">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G55">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H55">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I55">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J55">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K55">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L55" s="1">
         <f>AVERAGE(B55:K55)</f>
-        <v>34.200000000000003</v>
+        <v>22.6</v>
       </c>
       <c r="N55">
         <f>STDEV(B55:K55)/SQRT(10)</f>
-        <v>0.96378881965339736</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.88443327742810429</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -4148,7 +4793,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>

--- a/FaradayData.xlsx
+++ b/FaradayData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09d1f3cf5ee91424/HaydSwanMeta/JupyterCode/Physics 422/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1131" documentId="13_ncr:1_{35D472D5-3081-4040-8BB2-D05E0E66F0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12D5E8B9-B631-457B-AEFD-0BEFCB0CA7A2}"/>
+  <xr:revisionPtr revIDLastSave="1276" documentId="13_ncr:1_{35D472D5-3081-4040-8BB2-D05E0E66F0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ABCA729-3259-4675-9C7F-1CE5ABB8FF95}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{6EAC14A5-1142-496B-AB7A-69A1B1452233}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6EAC14A5-1142-496B-AB7A-69A1B1452233}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpParams" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Rotation4" sheetId="8" r:id="rId8"/>
     <sheet name="Rotation5" sheetId="9" r:id="rId9"/>
     <sheet name="Rotation6" sheetId="10" r:id="rId10"/>
+    <sheet name="Rotation7" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="64">
   <si>
     <t>B long (cm)</t>
   </si>
@@ -170,18 +171,6 @@
     <t>SDM's</t>
   </si>
   <si>
-    <t>back of wooden cylinder</t>
-  </si>
-  <si>
-    <t>Plus metal rod</t>
-  </si>
-  <si>
-    <t>z (cm)</t>
-  </si>
-  <si>
-    <t>B(z=25)</t>
-  </si>
-  <si>
     <t>lip to lip, edge of the solenoid</t>
   </si>
   <si>
@@ -241,6 +230,15 @@
   <si>
     <t>away</t>
   </si>
+  <si>
+    <t>B1 (mT)</t>
+  </si>
+  <si>
+    <t>I (amps)</t>
+  </si>
+  <si>
+    <t>retake with good photodiode</t>
+  </si>
 </sst>
 </file>
 
@@ -255,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +263,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,10 +297,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -317,6 +336,56 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Hysteresis </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Plot</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36085102719088752"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -348,13 +417,26 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5706802752930266E-2"/>
+          <c:y val="5.3081889354212521E-2"/>
+          <c:w val="0.77175266434632839"/>
+          <c:h val="0.89718131536844214"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Forward Positive</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -379,7 +461,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hysteresis!$E$2:$E$14</c:f>
+              <c:f>Hysteresis!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -396,7 +478,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>2.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.5</c:v>
@@ -427,48 +509,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hysteresis!$F$2:$F$14</c:f>
+              <c:f>Hysteresis!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-8.0000000000000004E-4</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3380000000000001</c:v>
+                  <c:v>7.3150000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.585000000000001</c:v>
+                  <c:v>14.548999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.858000000000001</c:v>
+                  <c:v>21.094999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.114999999999998</c:v>
+                  <c:v>29.059000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.338000000000001</c:v>
+                  <c:v>36.256999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.591999999999999</c:v>
+                  <c:v>43.505000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.843000000000004</c:v>
+                  <c:v>50.741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.094999999999999</c:v>
+                  <c:v>57.984999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.352999999999994</c:v>
+                  <c:v>65.227000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.606999999999999</c:v>
+                  <c:v>72.471000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.855999999999995</c:v>
+                  <c:v>79.707999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>87.111000000000004</c:v>
+                  <c:v>86.953000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -476,7 +558,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CD2F-419B-AE94-104815E7033D}"/>
+              <c16:uniqueId val="{00000000-38CE-46AF-A5F1-BBACB9629559}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -484,7 +566,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>reverse</c:v>
+            <c:v>Backward Positive</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -510,96 +592,90 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hysteresis!$E$16:$E$28</c:f>
+              <c:f>Hysteresis!$A$15:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.501</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5</c:v>
+                  <c:v>0.501</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hysteresis!$F$16:$F$28</c:f>
+              <c:f>Hysteresis!$B$15:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-2.7499999999999998E-3</c:v>
+                  <c:v>79.704999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.3070000000000004</c:v>
+                  <c:v>72.466999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-14.551</c:v>
+                  <c:v>65.221000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-21.812000000000001</c:v>
+                  <c:v>57.975000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-29.045000000000002</c:v>
+                  <c:v>50.731999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-36.250999999999998</c:v>
+                  <c:v>43.496000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-43.497999999999998</c:v>
+                  <c:v>36.255000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-50.738</c:v>
+                  <c:v>29.004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-57.976999999999997</c:v>
+                  <c:v>21.803000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-65.22</c:v>
+                  <c:v>14.545</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-72.465999999999994</c:v>
+                  <c:v>7.3150000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-79.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-86.941000000000003</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,7 +683,260 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CD2F-419B-AE94-104815E7033D}"/>
+              <c16:uniqueId val="{00000001-38CE-46AF-A5F1-BBACB9629559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Forward Negative</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hysteresis!$A$27:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-0.499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.5010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.0010000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hysteresis!$B$27:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-7.2990000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-21.797000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-29.013000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-36.232999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-43.470999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-50.698999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-57.932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-65.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-72.403000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-79.647999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-86.888999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-38CE-46AF-A5F1-BBACB9629559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Backward Negative</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hysteresis!$A$39:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-5.5010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hysteresis!$B$39:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-79.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-72.412000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-65.180999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-57.945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-50.715000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-43.485999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-36.255000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-29.036000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-21.812999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-14.584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.27100000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-38CE-46AF-A5F1-BBACB9629559}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -619,11 +948,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1295195711"/>
-        <c:axId val="1287935887"/>
+        <c:axId val="2119451440"/>
+        <c:axId val="2119443280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1295195711"/>
+        <c:axId val="2119451440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -643,6 +972,73 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>I (amps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38693809147656782"/>
+              <c:y val="0.9528951277301827"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -680,12 +1076,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1287935887"/>
+        <c:crossAx val="2119443280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1287935887"/>
+        <c:axId val="2119443280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,6 +1101,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>B (mT)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -742,7 +1197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1295195711"/>
+        <c:crossAx val="2119451440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -754,6 +1209,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.853664144445475"/>
+          <c:y val="0.26503392252700136"/>
+          <c:w val="0.13850040092437799"/>
+          <c:h val="0.29295609857995791"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2517,23 +3013,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285748</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2622D85-0B07-BE30-914D-72C60090A6B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419994AF-3CBA-300E-3FC6-9681AE9D8CA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,8 +3576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8F5640-C57C-42CD-85FC-0F28C76F95E9}">
   <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3097,7 +3593,7 @@
         <v>5.96875</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1"/>
     </row>
@@ -3112,16 +3608,16 @@
         <v>635.4</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>6.9375</v>
@@ -3131,27 +3627,27 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L4" s="1"/>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -3213,7 +3709,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -3231,10 +3727,10 @@
         <v>12</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -3242,26 +3738,26 @@
       <c r="K7">
         <v>8</v>
       </c>
-      <c r="L7" s="1">
-        <f>AVERAGE(B7:K7)</f>
-        <v>8.4</v>
-      </c>
-      <c r="N7">
-        <f>STDEV(B7:K7)/SQRT(10)</f>
-        <v>1.013245610238044</v>
+      <c r="L7" s="1" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N7" t="e">
+        <f>STDEV(#REF!)/SQRT(10)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="1" t="e">
-        <f>AVERAGE(B8:K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" t="e">
-        <f>STDEV(B8:K8)/SQRT(10)</f>
-        <v>#DIV/0!</v>
+      <c r="L8" s="1">
+        <f>AVERAGE(B7:K7)</f>
+        <v>8.4</v>
+      </c>
+      <c r="N8">
+        <f>STDEV(B7:K7)/SQRT(10)</f>
+        <v>1.013245610238044</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -4794,6 +5290,1318 @@
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N57" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092A79B9-2F42-4B23-AA4D-4DF612063BD4}">
+  <dimension ref="A1:N57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1">
+        <v>5.96875</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>5.9375</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>450</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>6.9375</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>82.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>67</v>
+      </c>
+      <c r="C7">
+        <v>68</v>
+      </c>
+      <c r="D7">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>70.5</v>
+      </c>
+      <c r="F7">
+        <v>71.5</v>
+      </c>
+      <c r="G7">
+        <v>70</v>
+      </c>
+      <c r="H7">
+        <v>72</v>
+      </c>
+      <c r="I7">
+        <v>77</v>
+      </c>
+      <c r="J7">
+        <v>70</v>
+      </c>
+      <c r="K7">
+        <v>70</v>
+      </c>
+      <c r="L7" s="1">
+        <f>AVERAGE(B7:K7)</f>
+        <v>70.5</v>
+      </c>
+      <c r="N7">
+        <f>STDEV(B7:K7)/SQRT(10)</f>
+        <v>0.86281194036965225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1" t="e">
+        <f>AVERAGE(B8:K8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" t="e">
+        <f>STDEV(B8:K8)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="1" t="e">
+        <f>AVERAGE(B9:K9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" t="e">
+        <f>STDEV(B9:K9)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <f t="shared" ref="L10:L53" si="0">AVERAGE(B10:K10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" t="e">
+        <f t="shared" ref="N10:N53" si="1">STDEV(B10:K10)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>74</v>
+      </c>
+      <c r="C11">
+        <v>71.5</v>
+      </c>
+      <c r="D11">
+        <v>71</v>
+      </c>
+      <c r="E11">
+        <v>67</v>
+      </c>
+      <c r="F11">
+        <v>71.5</v>
+      </c>
+      <c r="G11">
+        <v>71</v>
+      </c>
+      <c r="H11">
+        <v>71.5</v>
+      </c>
+      <c r="I11">
+        <v>68.5</v>
+      </c>
+      <c r="J11">
+        <v>71.5</v>
+      </c>
+      <c r="K11">
+        <v>73.5</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>71.099999999999994</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0.65319726474218076</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>69</v>
+      </c>
+      <c r="C15">
+        <v>73.5</v>
+      </c>
+      <c r="D15">
+        <v>74</v>
+      </c>
+      <c r="E15">
+        <v>79</v>
+      </c>
+      <c r="F15">
+        <v>68.5</v>
+      </c>
+      <c r="G15">
+        <v>71</v>
+      </c>
+      <c r="H15">
+        <v>79</v>
+      </c>
+      <c r="I15">
+        <v>78</v>
+      </c>
+      <c r="J15">
+        <v>74.5</v>
+      </c>
+      <c r="K15">
+        <v>68.5</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>73.5</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>1.3270686158262921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>72</v>
+      </c>
+      <c r="C19">
+        <v>73</v>
+      </c>
+      <c r="D19">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <v>80</v>
+      </c>
+      <c r="G19">
+        <v>71</v>
+      </c>
+      <c r="H19">
+        <v>76</v>
+      </c>
+      <c r="I19">
+        <v>70</v>
+      </c>
+      <c r="J19">
+        <v>74</v>
+      </c>
+      <c r="K19">
+        <v>71</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>72.7</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>1.0225241100118645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
+        <f>AVERAGE(B22:K22)</f>
+        <v>2</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>73</v>
+      </c>
+      <c r="C23">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>74</v>
+      </c>
+      <c r="E23">
+        <v>72</v>
+      </c>
+      <c r="F23">
+        <v>79</v>
+      </c>
+      <c r="G23">
+        <v>71</v>
+      </c>
+      <c r="H23">
+        <v>80</v>
+      </c>
+      <c r="I23">
+        <v>78</v>
+      </c>
+      <c r="J23">
+        <v>74</v>
+      </c>
+      <c r="K23">
+        <v>74</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="0"/>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>1.0349449797506682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>70</v>
+      </c>
+      <c r="C27">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>84</v>
+      </c>
+      <c r="E27">
+        <v>75</v>
+      </c>
+      <c r="F27">
+        <v>77</v>
+      </c>
+      <c r="G27">
+        <v>74</v>
+      </c>
+      <c r="H27">
+        <v>73</v>
+      </c>
+      <c r="I27">
+        <v>73</v>
+      </c>
+      <c r="J27">
+        <v>74</v>
+      </c>
+      <c r="K27">
+        <v>78</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="0"/>
+        <v>74.8</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>1.3063945294843615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>76</v>
+      </c>
+      <c r="C31">
+        <v>81</v>
+      </c>
+      <c r="D31">
+        <v>77</v>
+      </c>
+      <c r="E31">
+        <v>76</v>
+      </c>
+      <c r="F31">
+        <v>78</v>
+      </c>
+      <c r="G31">
+        <v>70</v>
+      </c>
+      <c r="H31">
+        <v>78</v>
+      </c>
+      <c r="I31">
+        <v>75</v>
+      </c>
+      <c r="J31">
+        <v>75</v>
+      </c>
+      <c r="K31">
+        <v>78</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="0"/>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0.90921211313239048</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>70</v>
+      </c>
+      <c r="C35">
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <v>73</v>
+      </c>
+      <c r="E35">
+        <v>72</v>
+      </c>
+      <c r="F35">
+        <v>75</v>
+      </c>
+      <c r="G35">
+        <v>76</v>
+      </c>
+      <c r="H35">
+        <v>73</v>
+      </c>
+      <c r="I35">
+        <v>72</v>
+      </c>
+      <c r="J35">
+        <v>78</v>
+      </c>
+      <c r="K35">
+        <v>75</v>
+      </c>
+      <c r="L35" s="1">
+        <f>AVERAGE(B35:K35)</f>
+        <v>73.900000000000006</v>
+      </c>
+      <c r="N35">
+        <f>STDEV(B35:K35)/SQRT(10)</f>
+        <v>0.73711147958319923</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>79</v>
+      </c>
+      <c r="C39">
+        <v>78</v>
+      </c>
+      <c r="D39">
+        <v>78.5</v>
+      </c>
+      <c r="E39">
+        <v>83</v>
+      </c>
+      <c r="F39">
+        <v>74</v>
+      </c>
+      <c r="G39">
+        <v>78</v>
+      </c>
+      <c r="H39">
+        <v>77</v>
+      </c>
+      <c r="I39">
+        <v>72.5</v>
+      </c>
+      <c r="J39">
+        <v>82</v>
+      </c>
+      <c r="K39">
+        <v>79</v>
+      </c>
+      <c r="L39" s="1">
+        <f>AVERAGE(B39:K39)</f>
+        <v>78.099999999999994</v>
+      </c>
+      <c r="N39">
+        <f>STDEV(B39:K39)/SQRT(10)</f>
+        <v>1.0022197585581938</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>78</v>
+      </c>
+      <c r="C43">
+        <v>84.5</v>
+      </c>
+      <c r="D43">
+        <v>79</v>
+      </c>
+      <c r="E43">
+        <v>81</v>
+      </c>
+      <c r="F43">
+        <v>78.5</v>
+      </c>
+      <c r="G43">
+        <v>73</v>
+      </c>
+      <c r="H43">
+        <v>76</v>
+      </c>
+      <c r="I43">
+        <v>79</v>
+      </c>
+      <c r="J43">
+        <v>84.5</v>
+      </c>
+      <c r="K43">
+        <v>81</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="0"/>
+        <v>79.45</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="1"/>
+        <v>1.1191514642799696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N44" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>80.5</v>
+      </c>
+      <c r="C47">
+        <v>85</v>
+      </c>
+      <c r="D47">
+        <v>79</v>
+      </c>
+      <c r="E47">
+        <v>82</v>
+      </c>
+      <c r="F47">
+        <v>85</v>
+      </c>
+      <c r="G47">
+        <v>79.5</v>
+      </c>
+      <c r="H47">
+        <v>84.5</v>
+      </c>
+      <c r="I47">
+        <v>84</v>
+      </c>
+      <c r="J47">
+        <v>78</v>
+      </c>
+      <c r="K47">
+        <v>78.5</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="0"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="1"/>
+        <v>0.89690826980491389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5.5010000000000003</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1">
+        <f>AVERAGE(B50:K50)</f>
+        <v>5.5010000000000003</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>78.5</v>
+      </c>
+      <c r="C51">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>75.5</v>
+      </c>
+      <c r="E51">
+        <v>77</v>
+      </c>
+      <c r="F51">
+        <v>82</v>
+      </c>
+      <c r="G51">
+        <v>81.5</v>
+      </c>
+      <c r="H51">
+        <v>78</v>
+      </c>
+      <c r="I51">
+        <v>82</v>
+      </c>
+      <c r="J51">
+        <v>85</v>
+      </c>
+      <c r="K51">
+        <v>81</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="0"/>
+        <v>79.55</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>1.0259142264341594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="1" t="e">
+        <f>AVERAGE(B52:K52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <v>52</v>
+      </c>
+      <c r="E55">
+        <v>52.5</v>
+      </c>
+      <c r="F55">
+        <v>52.5</v>
+      </c>
+      <c r="G55">
+        <v>52.5</v>
+      </c>
+      <c r="H55">
+        <v>53</v>
+      </c>
+      <c r="I55">
+        <v>52.5</v>
+      </c>
+      <c r="J55">
+        <v>51</v>
+      </c>
+      <c r="K55">
+        <v>53</v>
+      </c>
+      <c r="L55" s="1">
+        <f>AVERAGE(B55:K55)</f>
+        <v>52.4</v>
+      </c>
+      <c r="N55">
+        <f>STDEV(B55:K55)/SQRT(10)</f>
+        <v>0.19436506316151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="1" t="e">
+        <f t="shared" ref="L56:L57" si="2">AVERAGE(B56:K56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N56" t="e">
+        <f t="shared" ref="N56:N57" si="3">STDEV(B56:K56)/SQRT(10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -5406,14 +7214,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E97C81-A280-4B7C-94CF-FF770AB9D771}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
@@ -5421,244 +7230,404 @@
     <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>7.3150000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>14.548999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B5">
+        <v>21.094999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="B6">
+        <v>29.059000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B7">
+        <v>36.256999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>43.505000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B9">
+        <v>50.741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>57.984999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B11">
+        <v>65.227000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>72.471000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="B13">
+        <v>79.707999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B14">
+        <v>86.953000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B15">
+        <v>79.704999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>72.466999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B17">
+        <v>65.221000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>57.975000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B19">
+        <v>50.731999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>43.496000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B21">
+        <v>36.255000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>29.004999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B23">
+        <v>21.803000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>14.545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.501</v>
+      </c>
+      <c r="B25">
+        <v>7.3150000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>68.88</v>
-      </c>
-      <c r="E2">
+      <c r="B26">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>-0.499</v>
+      </c>
+      <c r="B27">
+        <v>-7.2990000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B28">
+        <v>-14.542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="B29">
+        <v>-21.797000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>-2</v>
+      </c>
+      <c r="B30">
+        <v>-29.013000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="B31">
+        <v>-36.232999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>-3</v>
+      </c>
+      <c r="B32">
+        <v>-43.470999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>-3.5</v>
+      </c>
+      <c r="B33">
+        <v>-50.698999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>-4</v>
+      </c>
+      <c r="B34">
+        <v>-57.932000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>-4.5</v>
+      </c>
+      <c r="B35">
+        <v>-65.17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>-5</v>
+      </c>
+      <c r="B36">
+        <v>-72.403000000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>-5.5010000000000003</v>
+      </c>
+      <c r="B37">
+        <v>-79.647999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>-6.0010000000000003</v>
+      </c>
+      <c r="B38">
+        <v>-86.888999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>-5.5010000000000003</v>
+      </c>
+      <c r="B39">
+        <v>-79.650000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>-5</v>
+      </c>
+      <c r="B40">
+        <v>-72.412000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>-4.5</v>
+      </c>
+      <c r="B41">
+        <v>-65.180999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>-4</v>
+      </c>
+      <c r="B42">
+        <v>-57.945</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>-3.5</v>
+      </c>
+      <c r="B43">
+        <v>-50.715000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>-3</v>
+      </c>
+      <c r="B44">
+        <v>-43.485999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="B45">
+        <v>-36.255000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>-2</v>
+      </c>
+      <c r="B46">
+        <v>-29.036000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>-1.5</v>
+      </c>
+      <c r="B47">
+        <v>-21.812999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>-1.0009999999999999</v>
+      </c>
+      <c r="B48">
+        <v>-14.584</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>-0.5</v>
+      </c>
+      <c r="B49">
+        <v>-7.34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>-8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>43.88</v>
-      </c>
-      <c r="C3">
-        <v>79.2</v>
-      </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-      <c r="F3">
-        <v>7.3380000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>14.585000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5">
-        <v>1.5</v>
-      </c>
-      <c r="F5">
-        <v>21.858000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>29.114999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7">
-        <v>2.5</v>
-      </c>
-      <c r="F7">
-        <v>36.338000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>43.591999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9">
-        <v>3.5</v>
-      </c>
-      <c r="F9">
-        <v>50.843000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>58.094999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11">
-        <v>4.5</v>
-      </c>
-      <c r="F11">
-        <v>65.352999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>72.606999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13">
-        <v>5.5</v>
-      </c>
-      <c r="F13">
-        <v>79.855999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>87.111000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>-2.7499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <v>-0.501</v>
-      </c>
-      <c r="F17">
-        <v>-7.3070000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18">
-        <v>-1</v>
-      </c>
-      <c r="F18">
-        <v>-14.551</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19">
-        <v>-1.5</v>
-      </c>
-      <c r="F19">
-        <v>-21.812000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20">
-        <v>-2</v>
-      </c>
-      <c r="F20">
-        <v>-29.045000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21">
-        <v>-2.5</v>
-      </c>
-      <c r="F21">
-        <v>-36.250999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22">
-        <v>-3</v>
-      </c>
-      <c r="F22">
-        <v>-43.497999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23">
-        <v>-3.5</v>
-      </c>
-      <c r="F23">
-        <v>-50.738</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E24">
-        <v>-4</v>
-      </c>
-      <c r="F24">
-        <v>-57.976999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E25">
-        <v>-4.5</v>
-      </c>
-      <c r="F25">
-        <v>-65.22</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E26">
-        <v>-5</v>
-      </c>
-      <c r="F26">
-        <v>-72.465999999999994</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E27">
-        <v>-5.5</v>
-      </c>
-      <c r="F27">
-        <v>-79.7</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E28">
-        <v>-6</v>
-      </c>
-      <c r="F28">
-        <v>-86.941000000000003</v>
+      <c r="B50">
+        <v>-0.27100000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -7668,7 +9637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08F3EDA-1282-46BE-B456-E2CC958A88C3}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T50" sqref="T50"/>
     </sheetView>
   </sheetViews>
@@ -7685,10 +9654,10 @@
         <v>7.5</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1"/>
     </row>
@@ -7703,7 +9672,7 @@
         <v>450</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -9035,8 +11004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94FD0F2-3F9D-427A-8005-85FE2D896475}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:N61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9052,10 +11021,10 @@
         <v>5.75</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1"/>
     </row>
@@ -9067,19 +11036,19 @@
         <v>5.75</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>450</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>6.9375</v>
@@ -9088,28 +11057,28 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>82.5</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -10443,7 +12412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44605ADF-DAFE-4903-846E-D4893C533D31}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10458,10 +12429,10 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1"/>
     </row>
@@ -10473,16 +12444,16 @@
         <v>5.875</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>535</v>
+        <v>635</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J2">
         <v>218.5</v>
@@ -10491,40 +12462,40 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>6.9375</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>82.5</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -11858,8 +13829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8689EEDC-2933-420F-A03A-A0206B7A4892}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="S58" sqref="S58"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11875,10 +13846,10 @@
         <v>5.96875</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1"/>
     </row>
@@ -11890,22 +13861,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>450</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L2" s="1"/>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>6.9375</v>
@@ -11914,28 +13885,28 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>82.5</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L5" s="1"/>
     </row>
